--- a/Config/config.xlsx
+++ b/Config/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Assistente_Transportadora\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3185C5E-6649-4E1C-8A5F-499D0D2A9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA67881-579D-477A-930B-4E269B60D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="420" windowWidth="14400" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Recicle" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns!$A$1:$S$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns!$A$1:$T$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>Baixa Mobile</t>
+  </si>
+  <si>
+    <t>PRAZO CLIENTE</t>
+  </si>
+  <si>
+    <t>Data prevista</t>
+  </si>
+  <si>
+    <t>Prazo de Entrega Atualizado</t>
   </si>
 </sst>
 </file>
@@ -594,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -640,6 +649,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,13 +995,14 @@
     <col min="13" max="13" width="30.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1037,19 +1049,22 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
@@ -1095,20 +1110,23 @@
       <c r="O2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
@@ -1154,20 +1172,23 @@
       <c r="O3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="T3" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>45</v>
       </c>
@@ -1213,20 +1234,23 @@
       <c r="O4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="S4" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="T4" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>71</v>
       </c>
@@ -1272,20 +1296,23 @@
       <c r="O5" s="28">
         <v>0</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>108</v>
       </c>
@@ -1331,7 +1358,7 @@
       <c r="O6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="25" t="s">
         <v>85</v>
       </c>
       <c r="Q6" s="14" t="s">
@@ -1343,8 +1370,11 @@
       <c r="S6" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>109</v>
       </c>
@@ -1390,21 +1420,27 @@
       <c r="O7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="S7" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="T7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P8" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Config/config.xlsx
+++ b/Config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA67881-579D-477A-930B-4E269B60D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16D271-C920-4E0C-918F-20C859DEFC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,14 +988,14 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
@@ -1028,28 +1028,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -1089,29 +1089,29 @@
       <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>122</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>13</v>
@@ -1151,29 +1151,29 @@
       <c r="H3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>13</v>
@@ -1213,29 +1213,29 @@
       <c r="H4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>13</v>
@@ -1275,29 +1275,29 @@
       <c r="H5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="28">
+      <c r="P5" s="28">
         <v>0</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>82</v>
@@ -1337,7 +1337,7 @@
       <c r="H6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="25" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -1346,19 +1346,19 @@
       <c r="K6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="14" t="s">
         <v>85</v>
       </c>
       <c r="Q6" s="14" t="s">
@@ -1399,17 +1399,17 @@
       <c r="H7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>85</v>
@@ -1437,7 +1437,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Config/config.xlsx
+++ b/Config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16D271-C920-4E0C-918F-20C859DEFC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB84E824-8933-4FCC-B347-184AE0A92C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>Data entrega</t>
   </si>
   <si>
-    <t>Data da última ocorrência</t>
-  </si>
-  <si>
     <t>Base destino</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>Prazo de Entrega Atualizado</t>
+  </si>
+  <si>
+    <t>Data entrega#2</t>
   </si>
 </sst>
 </file>
@@ -972,10 +972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,13 +1029,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -1061,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,13 +1091,13 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>25</v>
@@ -1111,7 +1112,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>13</v>
@@ -1120,10 +1121,10 @@
         <v>29</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1152,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>38</v>
@@ -1167,187 +1168,187 @@
         <v>40</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>41</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="T3" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="K4" s="25">
         <v>0</v>
       </c>
       <c r="L4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="P5" s="28">
         <v>0</v>
       </c>
       <c r="Q5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>26</v>
@@ -1356,91 +1357,99 @@
         <v>27</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="I7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="M7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DIRECT"/>
+        <filter val="POT SPEED"/>
+        <filter val="TOTAL EXPRESS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1464,10 +1473,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1508,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1550,57 +1559,57 @@
         <v>30</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,28 +1703,28 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="I1" s="17">
         <v>0</v>
@@ -1724,37 +1733,37 @@
         <v>0</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="R1" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1764,7 +1773,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">

--- a/Config/config.xlsx
+++ b/Config/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB84E824-8933-4FCC-B347-184AE0A92C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA0BBD-37D4-46BC-9F1B-91B0ABBEDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Recicle" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns!$A$1:$T$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns!$A$1:$T$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -409,6 +409,33 @@
   </si>
   <si>
     <t>Data entrega#2</t>
+  </si>
+  <si>
+    <t>SEQUOIA</t>
+  </si>
+  <si>
+    <t>Entregador</t>
+  </si>
+  <si>
+    <t>FAE</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>DtEntrega</t>
+  </si>
+  <si>
+    <t>DtFae</t>
+  </si>
+  <si>
+    <t>IATA</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>PesoCubado</t>
   </si>
 </sst>
 </file>
@@ -603,10 +630,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,11 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,14 +664,48 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,484 +1027,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:G29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="12.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="23">
         <v>0</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="29">
         <v>0</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="31">
         <v>0</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="26" t="s">
+      <c r="S5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="S6" s="31">
+        <v>0</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E7" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="F7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="O7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G8" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="I8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="16" t="s">
+      <c r="K8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+      <c r="M8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R8" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I8" s="30"/>
+      <c r="S8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I9" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DIRECT"/>
-        <filter val="POT SPEED"/>
-        <filter val="TOTAL EXPRESS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1465,25 +1555,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="100" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="12">
         <v>44911</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="12">
         <v>44926</v>
       </c>
     </row>
@@ -1507,7 +1597,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1552,16 +1642,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1644,44 +1734,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1696,98 +1786,98 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="11">
         <v>0</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="5">
         <v>0</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="22" t="s">
+      <c r="R1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Config/config.xlsx
+++ b/Config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA0BBD-37D4-46BC-9F1B-91B0ABBEDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2283447C-B865-436D-94A7-6C243312B11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,16 +1027,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="20" width="12.42578125" style="24" customWidth="1"/>
+    <col min="2" max="12" width="12.42578125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1225,7 +1229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>70</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>107</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>108</v>
       </c>
@@ -1539,7 +1543,15 @@
       <c r="I9" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T8" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="POT SPEED"/>
+        <filter val="SEQUOIA"/>
+        <filter val="TOTAL EXPRESS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
